--- a/data/2024/ssg/28,2_DE-7.xlsx
+++ b/data/2024/ssg/28,2_DE-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="204">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -154,6 +154,12 @@
     <t>9.1969 -</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>805161-6</t>
   </si>
   <si>
@@ -277,12 +283,6 @@
     <t>1992,Okt. -</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>1289823-5</t>
   </si>
   <si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>[1.]2006; 2.2007 -</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>2275416-7</t>
@@ -1176,13 +1179,13 @@
         <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="X3" t="s">
         <v>38</v>
@@ -1193,13 +1196,13 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -1226,7 +1229,7 @@
         <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -1244,7 +1247,7 @@
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -1270,7 +1273,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1282,7 +1285,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
@@ -1303,7 +1306,7 @@
         <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -1321,7 +1324,7 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
         <v>32</v>
@@ -1347,7 +1350,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1356,13 +1359,13 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -1398,7 +1401,7 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="S6" t="s">
         <v>32</v>
@@ -1424,7 +1427,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1436,10 +1439,10 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -1457,7 +1460,7 @@
         <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M7" t="s">
         <v>32</v>
@@ -1475,7 +1478,7 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="S7" t="s">
         <v>32</v>
@@ -1501,25 +1504,25 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
@@ -1528,13 +1531,13 @@
         <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
         <v>32</v>
@@ -1552,7 +1555,7 @@
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s">
         <v>32</v>
@@ -1578,7 +1581,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1587,16 +1590,16 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -1605,13 +1608,13 @@
         <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
@@ -1629,7 +1632,7 @@
         <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
         <v>32</v>
@@ -1655,7 +1658,7 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1664,13 +1667,13 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -1679,10 +1682,10 @@
         <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s">
         <v>35</v>
@@ -1703,10 +1706,10 @@
         <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
         <v>32</v>
@@ -1715,13 +1718,13 @@
         <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="W10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="X10" t="s">
         <v>38</v>
@@ -1738,7 +1741,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>90</v>
@@ -1824,10 +1827,10 @@
         <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
@@ -1892,7 +1895,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>106</v>
@@ -1969,7 +1972,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>114</v>
@@ -2058,7 +2061,7 @@
         <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
         <v>32</v>
@@ -2200,7 +2203,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>138</v>
@@ -2354,7 +2357,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>152</v>
@@ -2431,7 +2434,7 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>158</v>
@@ -2648,15 +2651,15 @@
         <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="Y22" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2665,13 +2668,13 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
         <v>109</v>
@@ -2683,7 +2686,7 @@
         <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s">
         <v>35</v>
@@ -2704,10 +2707,10 @@
         <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S23" t="s">
         <v>32</v>
@@ -2728,27 +2731,27 @@
         <v>103</v>
       </c>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
         <v>109</v>
@@ -2760,7 +2763,7 @@
         <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s">
         <v>35</v>
@@ -2784,7 +2787,7 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S24" t="s">
         <v>32</v>
@@ -2819,7 +2822,7 @@
         <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s">
         <v>167</v>
@@ -2834,7 +2837,7 @@
         <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
         <v>34</v>
@@ -2843,7 +2846,7 @@
         <v>35</v>
       </c>
       <c r="L25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M25" t="s">
         <v>32</v>
@@ -2861,7 +2864,7 @@
         <v>164</v>
       </c>
       <c r="R25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S25" t="s">
         <v>32</v>
@@ -2887,25 +2890,25 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H26" t="s">
         <v>32</v>
@@ -2938,7 +2941,7 @@
         <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S26" t="s">
         <v>32</v>
